--- a/ResultadoEleicoesDistritos/CASTELO BRANCO_VILA VELHA DE RÓDÃO.xlsx
+++ b/ResultadoEleicoesDistritos/CASTELO BRANCO_VILA VELHA DE RÓDÃO.xlsx
@@ -600,25 +600,25 @@
         <v>30</v>
       </c>
       <c r="I2" t="n">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J2" t="n">
-        <v>337</v>
+        <v>360</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2" t="n">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="M2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N2" t="n">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -627,34 +627,34 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S2" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="T2" t="n">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="U2" t="n">
+        <v>9</v>
+      </c>
+      <c r="V2" t="n">
+        <v>536</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>501</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA2" t="n">
         <v>3</v>
-      </c>
-      <c r="V2" t="n">
-        <v>532</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>535</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
